--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -367,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,13 +375,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,20 +754,20 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -782,12 +785,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -805,12 +808,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
         <v>23</v>
       </c>
@@ -828,12 +831,12 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" t="s">
         <v>25</v>
       </c>
@@ -851,12 +854,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" t="s">
         <v>26</v>
       </c>
@@ -874,12 +877,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -897,12 +900,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>29</v>
       </c>
@@ -920,12 +923,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>30</v>
       </c>
@@ -943,12 +946,12 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" t="s">
         <v>31</v>
       </c>
@@ -966,12 +969,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>32</v>
       </c>
@@ -989,12 +992,12 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>37</v>
       </c>
@@ -1012,12 +1015,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>38</v>
       </c>
@@ -1035,12 +1038,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
         <v>39</v>
       </c>
@@ -1058,18 +1061,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>32</v>
       </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1087,9 +1092,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" t="s">
         <v>44</v>
       </c>
@@ -1107,9 +1115,12 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
         <v>31</v>
       </c>
@@ -1127,9 +1138,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
         <v>47</v>
       </c>
@@ -1147,9 +1161,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" t="s">
         <v>48</v>
       </c>
@@ -1167,9 +1184,12 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" t="s">
         <v>49</v>
       </c>
@@ -1187,9 +1207,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" t="s">
         <v>50</v>
       </c>
@@ -1221,7 +1244,7 @@
       <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>32</v>
       </c>
       <c r="G23" t="s">
@@ -1246,18 +1269,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>32</v>
       </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1275,9 +1300,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" t="s">
         <v>63</v>
       </c>
@@ -1295,9 +1323,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" t="s">
         <v>65</v>
       </c>
@@ -1315,9 +1346,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" t="s">
         <v>66</v>
       </c>
@@ -1335,9 +1369,12 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" t="s">
         <v>68</v>
       </c>
@@ -1355,9 +1392,12 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" t="s">
         <v>70</v>
       </c>
@@ -1375,9 +1415,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" t="s">
         <v>71</v>
       </c>
@@ -1395,7 +1438,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="E25:E31"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="E2:E14"/>
     <mergeCell ref="F2:F14"/>
@@ -1405,11 +1456,9 @@
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F15:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
